--- a/CheckList.xlsx
+++ b/CheckList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Universidade\6º Semestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Universidade\6º Semestre\Engenharia de Software Orientada a Modelos\T2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F659EF4-9C79-46B5-B12D-54D8B7DCA46C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6916A9B-E3B7-468A-972D-BFAE2B7F8D06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{196622FB-34F7-486E-B514-98B94C9BCD6E}"/>
   </bookViews>
@@ -33,20 +33,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>UserStories</t>
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>Gherkin</t>
+  </si>
+  <si>
+    <t>Repositório Git</t>
+  </si>
+  <si>
+    <t>Relatório</t>
+  </si>
+  <si>
+    <t>Referências</t>
+  </si>
+  <si>
+    <t>Nomes no trab.</t>
+  </si>
+  <si>
+    <t>UserStories cobrem o necessário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procedimento conforme indicado pelo professor </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -74,8 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,15 +420,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A25969F-E4B9-4ED3-8450-21FEEF06411B}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -409,7 +439,67 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>